--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H2">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I2">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J2">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.913477</v>
+        <v>2.211928</v>
       </c>
       <c r="N2">
-        <v>14.740431</v>
+        <v>6.635783999999999</v>
       </c>
       <c r="O2">
-        <v>0.3201889893918886</v>
+        <v>0.174938892641363</v>
       </c>
       <c r="P2">
-        <v>0.3201889893918885</v>
+        <v>0.1749388926413629</v>
       </c>
       <c r="Q2">
-        <v>1.135032840908</v>
+        <v>0.6610155127573333</v>
       </c>
       <c r="R2">
-        <v>10.215295568172</v>
+        <v>5.949139614816</v>
       </c>
       <c r="S2">
-        <v>0.09800007681038353</v>
+        <v>0.06355480120353105</v>
       </c>
       <c r="T2">
-        <v>0.09800007681038349</v>
+        <v>0.06355480120353102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H3">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.594734</v>
       </c>
       <c r="O3">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="P3">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="Q3">
-        <v>0.8928099776453333</v>
+        <v>1.154995256068445</v>
       </c>
       <c r="R3">
-        <v>8.035289798808</v>
+        <v>10.394957304616</v>
       </c>
       <c r="S3">
-        <v>0.07708626854913302</v>
+        <v>0.1110495782228328</v>
       </c>
       <c r="T3">
-        <v>0.077086268549133</v>
+        <v>0.1110495782228328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H4">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>19.701493</v>
       </c>
       <c r="O4">
-        <v>0.4279522853287917</v>
+        <v>0.5193896258228967</v>
       </c>
       <c r="P4">
-        <v>0.4279522853287916</v>
+        <v>0.5193896258228966</v>
       </c>
       <c r="Q4">
-        <v>1.517041229657333</v>
+        <v>1.962540145592444</v>
       </c>
       <c r="R4">
-        <v>13.653371066916</v>
+        <v>17.662861310332</v>
       </c>
       <c r="S4">
-        <v>0.130983132533861</v>
+        <v>0.1886927710467608</v>
       </c>
       <c r="T4">
-        <v>0.130983132533861</v>
+        <v>0.1886927710467607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.155575</v>
       </c>
       <c r="I5">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J5">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.913477</v>
+        <v>2.211928</v>
       </c>
       <c r="N5">
-        <v>14.740431</v>
+        <v>6.635783999999999</v>
       </c>
       <c r="O5">
-        <v>0.3201889893918886</v>
+        <v>0.174938892641363</v>
       </c>
       <c r="P5">
-        <v>0.3201889893918885</v>
+        <v>0.1749388926413629</v>
       </c>
       <c r="Q5">
-        <v>1.892630394758333</v>
+        <v>0.8520162328666666</v>
       </c>
       <c r="R5">
-        <v>17.033673552825</v>
+        <v>7.668146095799999</v>
       </c>
       <c r="S5">
-        <v>0.1634119449016163</v>
+        <v>0.08191898867266284</v>
       </c>
       <c r="T5">
-        <v>0.1634119449016163</v>
+        <v>0.08191898867266283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.155575</v>
       </c>
       <c r="I6">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J6">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.594734</v>
       </c>
       <c r="O6">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="P6">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="Q6">
         <v>1.488731638005556</v>
@@ -818,10 +818,10 @@
         <v>13.39858474205</v>
       </c>
       <c r="S6">
-        <v>0.1285388489357535</v>
+        <v>0.1431374021831541</v>
       </c>
       <c r="T6">
-        <v>0.1285388489357534</v>
+        <v>0.1431374021831541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.155575</v>
       </c>
       <c r="I7">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J7">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>19.701493</v>
       </c>
       <c r="O7">
-        <v>0.4279522853287917</v>
+        <v>0.5193896258228967</v>
       </c>
       <c r="P7">
-        <v>0.4279522853287916</v>
+        <v>0.5193896258228966</v>
       </c>
       <c r="Q7">
         <v>2.529616974830556</v>
@@ -880,10 +880,10 @@
         <v>22.766552773475</v>
       </c>
       <c r="S7">
-        <v>0.2184101189846878</v>
+        <v>0.2432156293667103</v>
       </c>
       <c r="T7">
-        <v>0.2184101189846877</v>
+        <v>0.2432156293667103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.415644</v>
       </c>
       <c r="I8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.913477</v>
+        <v>2.211928</v>
       </c>
       <c r="N8">
-        <v>14.740431</v>
+        <v>6.635783999999999</v>
       </c>
       <c r="O8">
-        <v>0.3201889893918886</v>
+        <v>0.174938892641363</v>
       </c>
       <c r="P8">
-        <v>0.3201889893918885</v>
+        <v>0.1749388926413629</v>
       </c>
       <c r="Q8">
-        <v>0.680752411396</v>
+        <v>0.306458200544</v>
       </c>
       <c r="R8">
-        <v>6.126771702564</v>
+        <v>2.758123804896</v>
       </c>
       <c r="S8">
-        <v>0.05877696767988872</v>
+        <v>0.02946510276516909</v>
       </c>
       <c r="T8">
-        <v>0.05877696767988871</v>
+        <v>0.02946510276516909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.415644</v>
       </c>
       <c r="I9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.594734</v>
       </c>
       <c r="O9">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="P9">
-        <v>0.2518587252793198</v>
+        <v>0.3056714815357404</v>
       </c>
       <c r="Q9">
-        <v>0.5354757354106666</v>
+        <v>0.5354757354106667</v>
       </c>
       <c r="R9">
-        <v>4.819281618695999</v>
+        <v>4.819281618696</v>
       </c>
       <c r="S9">
-        <v>0.04623360779443333</v>
+        <v>0.05148450112975349</v>
       </c>
       <c r="T9">
-        <v>0.04623360779443333</v>
+        <v>0.05148450112975349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.415644</v>
       </c>
       <c r="I10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>19.701493</v>
       </c>
       <c r="O10">
-        <v>0.4279522853287917</v>
+        <v>0.5193896258228967</v>
       </c>
       <c r="P10">
-        <v>0.4279522853287916</v>
+        <v>0.5193896258228966</v>
       </c>
       <c r="Q10">
-        <v>0.9098674840546666</v>
+        <v>0.9098674840546667</v>
       </c>
       <c r="R10">
         <v>8.188807356491999</v>
       </c>
       <c r="S10">
-        <v>0.07855903381024298</v>
+        <v>0.08748122540942556</v>
       </c>
       <c r="T10">
-        <v>0.07855903381024297</v>
+        <v>0.08748122540942554</v>
       </c>
     </row>
   </sheetData>
